--- a/application/src/test/resources/CCD_TestDefinition_withAccessProfileColumnAlias.xlsx
+++ b/application/src/test/resources/CCD_TestDefinition_withAccessProfileColumnAlias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rebeccabaker/HMCTS/Reform/ccd-definition-store-api/application/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kleogeorgiou/Documents/HMCTS-Projects/CCD/ccd-definition-store-api/application/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94A6D44-AEF9-AF4D-848C-12A476A9BE9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CCAA56-8BFF-2F44-8A56-44D9F15B3025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35200" windowHeight="19700" tabRatio="500" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35200" windowHeight="19700" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="366">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -1171,6 +1171,9 @@
   </si>
   <si>
     <t>ContectNumber="07777777777"</t>
+  </si>
+  <si>
+    <t>TTLIncrement</t>
   </si>
 </sst>
 </file>
@@ -3655,7 +3658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -17705,8 +17708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -17731,7 +17734,7 @@
     <col min="18" max="18" width="8.83203125" style="1" customWidth="1"/>
     <col min="19" max="19" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.83203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17886,7 +17889,9 @@
       <c r="T3" s="107" t="s">
         <v>293</v>
       </c>
-      <c r="U3" s="8"/>
+      <c r="U3" s="8" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="4" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
@@ -17937,7 +17942,9 @@
       <c r="T4" s="99" t="s">
         <v>172</v>
       </c>
-      <c r="U4" s="4"/>
+      <c r="U4" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
@@ -17984,7 +17991,9 @@
         <v>280</v>
       </c>
       <c r="T5" s="99"/>
-      <c r="U5" s="4"/>
+      <c r="U5" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
@@ -18027,7 +18036,9 @@
       <c r="R6" s="105"/>
       <c r="S6" s="4"/>
       <c r="T6" s="99"/>
-      <c r="U6" s="4"/>
+      <c r="U6" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
